--- a/3_Training_Validation/evaluation/feature_importances_ranked.xlsx
+++ b/3_Training_Validation/evaluation/feature_importances_ranked.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
-  <si>
-    <t>feature name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>mean</t>
   </si>
@@ -25,241 +22,223 @@
     <t>type</t>
   </si>
   <si>
+    <t>Diff_PSSM_Score</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
     <t>diff_foldx_total energy</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>Diff_PSSM_Score</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>Diff_PSSM_Score_Aver</t>
+  </si>
+  <si>
+    <t>wt_num_pharm_c_aromatics</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
   <si>
     <t>diff_aaindex1_Information measure for pleated-sheet (Robson-Suzuki, 1976)</t>
   </si>
   <si>
-    <t>wt_num_pharm_c_aromatics</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>diff_aaindex1_p-Values of mesophilic proteins based on the distributions of B values</t>
+  </si>
+  <si>
+    <t>WT_PSSM_Score</t>
   </si>
   <si>
     <t>wt_foldx_cis_bond</t>
   </si>
   <si>
-    <t>diff_aaindex1_p-Values of mesophilic proteins based on the distributions of B values</t>
+    <t>diff_aaindex1_Free energy in beta-strand conformation (Munoz-Serrano, 1994)</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Weights for beta-sheet at the window position of 1 (Qian-Sejnowski, 1988)</t>
+  </si>
+  <si>
+    <t>WT_Num_PIPISTACK_Ring</t>
+  </si>
+  <si>
+    <t>diff_foldx_Solvation Hydrophobic</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Thermodynamic beta sheet propensity (Kim-Berg, 1993)</t>
   </si>
   <si>
     <t>wt_foldx_disulfide</t>
   </si>
   <si>
-    <t>diff_aaindex1_Weights for beta-sheet at the window position of 1 (Qian-Sejnowski, 1988)</t>
-  </si>
-  <si>
-    <t>WT_Pct_rem465</t>
-  </si>
-  <si>
-    <t>WT_Num_PIPISTACK_Ring</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Free energy in beta-strand conformation (Munoz-Serrano, 1994)</t>
-  </si>
-  <si>
-    <t>diff_foldx_Solvation Hydrophobic</t>
+    <t>diff_aaindex1_Normalized flexibility parameters (B-values), average (Vihinen et al., 1994)</t>
+  </si>
+  <si>
+    <t>diff_num_pharm_c_hb_acceptors</t>
+  </si>
+  <si>
+    <t>wt_pct_ss_-</t>
+  </si>
+  <si>
+    <t>wt_num_pharm_c_hydrophobics</t>
+  </si>
+  <si>
+    <t>WT_Max_HD_Cluster_Area</t>
+  </si>
+  <si>
+    <t>MUT_PSSM_Score</t>
+  </si>
+  <si>
+    <t>WT_Num_HBOND_Ring</t>
+  </si>
+  <si>
+    <t>diff_num_pharm_c_hydrophobics</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Relative population of conformational state E (Vasquez et al., 1983)</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Side chain interaction parameter (Krigbaum-Rubin, 1971)</t>
+  </si>
+  <si>
+    <t>diff_num_pharm_c_hb_donors</t>
+  </si>
+  <si>
+    <t>WT_Num_VDW_Ring</t>
   </si>
   <si>
     <t>diff_aaindex1_Mean area buried on transfer (Rose et al., 1985)</t>
   </si>
   <si>
+    <t>layer3_wt_num_pharm_c_hydrophobics</t>
+  </si>
+  <si>
+    <t>wt_pct_ss_H</t>
+  </si>
+  <si>
+    <t>WT_RSA</t>
+  </si>
+  <si>
+    <t>wt_pct_ss_E</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Transfer free energy from chx to oct (Radzicka-Wolfenden, 1988)</t>
+  </si>
+  <si>
+    <t>WT_Num_PIPISTACK_Ring_Layer2</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Normalized positional residue frequency at helix termini N"' (Aurora-Rose,</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Average relative fractional occurrence in E0(i) (Rackovsky-Scheraga, 1982)</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Hydration potential (Wolfenden et al., 1981)</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Hydropathy scale based on self-information values in the two-state model (25%</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Average number of surrounding residues (Ponnuswamy et al., 1980)</t>
+  </si>
+  <si>
+    <t>layer2_wt_num_pharm_c_hb_acceptors</t>
+  </si>
+  <si>
     <t>wt_aaindex1_Normalized frequency of C-terminal beta-sheet (Chou-Fasman, 1978b)</t>
   </si>
   <si>
-    <t>WT_Num_HD_Cluster_Protlego</t>
-  </si>
-  <si>
-    <t>diff_num_pharm_c_hydrophobics</t>
-  </si>
-  <si>
-    <t>wt_pct_ss_-</t>
-  </si>
-  <si>
-    <t>WT_Max_HD_Cluster_Area</t>
+    <t>diff_aaindex1_Normalized frequency of turn in all-alpha class (Palau et al., 1981)</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Unfolding Gibbs energy in water, pH9.0 (Yutani et al., 1987)</t>
+  </si>
+  <si>
+    <t>wt_foldx_helix dipole</t>
+  </si>
+  <si>
+    <t>wt_pct_ss_T</t>
+  </si>
+  <si>
+    <t>layer1_wt_num_pharm_c_hydrophobics</t>
+  </si>
+  <si>
+    <t>wt_foldx_energy Ionisation</t>
   </si>
   <si>
     <t>WT_Num_PIPISTACK_Ring_Layer1</t>
   </si>
   <si>
-    <t>Diff_PSSM_Score_Aver</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Side-chain conformation by gaussian evolutionary method (Yang et al., 2002)</t>
-  </si>
-  <si>
-    <t>wt_pct_ss_H</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Free energy in beta-strand region (Munoz-Serrano, 1994)</t>
-  </si>
-  <si>
-    <t>WT_PSSM_Score</t>
-  </si>
-  <si>
-    <t>wt_foldx_helix dipole</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Side chain interaction parameter (Krigbaum-Rubin, 1971)</t>
-  </si>
-  <si>
-    <t>wt_pct_ss_E</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Buriability (Zhou-Zhou, 2004)</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Conformational preference for antiparallel beta-strands (Lifson-Sander, 1979)</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Transfer free energy from chx to oct (Radzicka-Wolfenden, 1988)</t>
-  </si>
-  <si>
-    <t>MUT_PSSM_Score</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Normalized frequency of turn in all-alpha class (Palau et al., 1981)</t>
-  </si>
-  <si>
-    <t>wt_foldx_energy Ionisation</t>
-  </si>
-  <si>
-    <t>layer3_wt_num_pharm_c_hydrophobics</t>
+    <t>WT_Pct_hotloop</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_alpha-NH chemical shifts (Bundi-Wuthrich, 1979)</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Weights for coil at the window position of -6 (Qian-Sejnowski, 1988)</t>
+  </si>
+  <si>
+    <t>wt_pct_ss_S</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_pK-N (Fasman, 1976)</t>
+  </si>
+  <si>
+    <t>WT_PSSM_Score_Aver</t>
+  </si>
+  <si>
+    <t>MUT_PSSM_Score_Aver</t>
   </si>
   <si>
     <t>WT_Num_HD_Cluster_Protlego_Layer1</t>
   </si>
   <si>
-    <t>wt_pct_ss_T</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Relative population of conformational state E (Vasquez et al., 1983)</t>
-  </si>
-  <si>
-    <t>wt_pct_ss_S</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Surface composition of amino acids in intracellular proteins of thermophiles</t>
-  </si>
-  <si>
-    <t>WT_Pct_coils</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Apparent partition energies calculated from Wertz-Scheraga index (Guy, 1985)</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Normalized positional residue frequency at helix termini N"' (Aurora-Rose,</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Average number of surrounding residues (Ponnuswamy et al., 1980)</t>
-  </si>
-  <si>
-    <t>layer2_wt_num_pharm_c_hb_acceptors</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Hydropathy scale based on self-information values in the two-state model (36%</t>
-  </si>
-  <si>
-    <t>layer2_wt_num_pharm_c_hydrophobics</t>
-  </si>
-  <si>
-    <t>WT_RSA</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Weights for coil at the window position of -6 (Qian-Sejnowski, 1988)</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Transfer free energy from oct to wat (Radzicka-Wolfenden, 1988)</t>
-  </si>
-  <si>
-    <t>layer1_wt_num_pharm_c_hydrophobics</t>
-  </si>
-  <si>
-    <t>WT_Num_PIPISTACK_Ring_Layer3</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Average relative fractional occurrence in E0(i-1) (Rackovsky-Scheraga, 1982)</t>
-  </si>
-  <si>
-    <t>MUT_PSSM_Score_Aver</t>
-  </si>
-  <si>
-    <t>layer2_wt_num_pharm_c_aromatics</t>
-  </si>
-  <si>
-    <t>WT_PSSM_Score_Aver</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Linker propensity from small dataset (linker length is less than six</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Entire chain composition of amino acids in intracellular proteins of</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Aperiodic indices (Geisow-Roberts, 1980)</t>
+    <t>diff_aaindex1_Average relative fractional occurrence in EL(i) (Rackovsky-Scheraga, 1982)</t>
+  </si>
+  <si>
+    <t>layer1_wt_num_pharm_c_hb_donors</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Distribution of amino acid residues in the alpha-helices in thermophilic</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_Relative preference value at Mid (Richardson-Richardson, 1988)</t>
+  </si>
+  <si>
+    <t>diff_foldx_energy Ionisation</t>
+  </si>
+  <si>
+    <t>diff_aaindex1_AA composition of CYT2 of single-spanning proteins (Nakashima-Nishikawa,</t>
+  </si>
+  <si>
+    <t>layer2_wt_num_pharm_c_hb_donors</t>
+  </si>
+  <si>
+    <t>wt_aaindex1_Weights for alpha-helix at the window position of 0 (Qian-Sejnowski, 1988)</t>
+  </si>
+  <si>
+    <t>MUT_PSSM_Score_B5</t>
   </si>
   <si>
     <t>wt_foldx_torsional clash</t>
   </si>
   <si>
-    <t>WT_Num_HBOND_Ring_Layer3</t>
-  </si>
-  <si>
-    <t>layer2_diff_num_pharm_c_aromatics</t>
-  </si>
-  <si>
-    <t>wt_foldx_Van der Waals clashes</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Normalized frequency of reverse turn, with weights (Levitt, 1978)</t>
-  </si>
-  <si>
-    <t>wt_foldx_backbone clash</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_AA composition of CYT2 of single-spanning proteins (Nakashima-Nishikawa,</t>
-  </si>
-  <si>
-    <t>wt_foldx_total energy</t>
-  </si>
-  <si>
-    <t>Diff_Num_HBOND_Ring</t>
-  </si>
-  <si>
-    <t>wt_foldx_Backbone Hbond</t>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>wt_pct_aa_c_nonpolar</t>
+  </si>
+  <si>
+    <t>WT_Num_VDW_Ring_Layer2</t>
   </si>
   <si>
     <t>Diff_Num_VDW_Ring_Layer1</t>
-  </si>
-  <si>
-    <t>diff_aaindex1_Normalized frequency of beta-sheet from LG (Palau et al., 1981)</t>
-  </si>
-  <si>
-    <t>layer2_wt_pct_ss_E</t>
-  </si>
-  <si>
-    <t>WT_NMA_Fluctuation</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>WT_Pct_Exposed_Residue</t>
-  </si>
-  <si>
-    <t>wt_pct_aa_c_nonpolar</t>
   </si>
 </sst>
 </file>
@@ -1253,753 +1232,750 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="101.555555555556" customWidth="1"/>
-    <col min="2" max="2" width="26.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="98.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0509098060429096</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.068585179746151</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0665762349963188</v>
+        <v>0.047666821628809</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0553663000464439</v>
+        <v>0.0466549769043922</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0339567884802818</v>
+        <v>0.0364336892962456</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0315090268850326</v>
+        <v>0.0346406474709511</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0303811393678188</v>
+        <v>0.0321100242435932</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0271537955850363</v>
+        <v>0.0289129130542278</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>0.026105523109436</v>
+        <v>0.0241889134049416</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0236614961177111</v>
+        <v>0.0231941752135754</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0228986851871014</v>
+        <v>0.0217504892498255</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0188893042504787</v>
+        <v>0.0201665330678225</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0164840314537287</v>
+        <v>0.0200248155742884</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>0.0154054639860988</v>
+        <v>0.0191987901926041</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>0.0151285082101822</v>
+        <v>0.0187271051108837</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>0.0143742160871625</v>
+        <v>0.0186060704290867</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0143562806770205</v>
+        <v>0.0181548055261373</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
-        <v>0.0141440033912659</v>
+        <v>0.0158048309385776</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>0.0137497633695602</v>
+        <v>0.0150985242798924</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0135837364941835</v>
+        <v>0.0145729733631015</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>0.0130994375795126</v>
+        <v>0.0144259911030531</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>0.0128176156431437</v>
+        <v>0.0138676045462489</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>0.0122721223160625</v>
+        <v>0.0134330689907074</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>0.0120428381487727</v>
+        <v>0.013327675871551</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
-        <v>0.0118453204631805</v>
+        <v>0.0131337344646454</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>0.0117331948131323</v>
+        <v>0.0127555727958679</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>0.0112267797812819</v>
+        <v>0.0122442916035652</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
-        <v>0.0110043361783028</v>
+        <v>0.0120599623769522</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
-        <v>0.0109994849190116</v>
+        <v>0.0120177734643221</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>0.0109408348798752</v>
+        <v>0.0117502100765705</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>0.0109015833586454</v>
+        <v>0.0115571832284331</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
-        <v>0.0105542298406362</v>
+        <v>0.0110995573922992</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
-        <v>0.010370085015893</v>
+        <v>0.0110567267984152</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
-        <v>0.0102929044514895</v>
+        <v>0.0110421711578965</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
-        <v>0.0100563121959567</v>
+        <v>0.0109030986204743</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
-        <v>0.0100104548037052</v>
+        <v>0.0108716953545809</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
-        <v>0.00973876845091581</v>
+        <v>0.0107149127870798</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
-        <v>0.0096128536388278</v>
+        <v>0.010445237159729</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
-        <v>0.00934099592268467</v>
+        <v>0.0102200526744127</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
-        <v>0.00932969339191914</v>
+        <v>0.0101765850558877</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
-        <v>0.00921866297721863</v>
+        <v>0.0101117799058557</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
-        <v>0.00902743637561798</v>
+        <v>0.0100481202825904</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
-        <v>0.00902274437248707</v>
+        <v>0.0100316256284714</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
-        <v>0.00896753184497356</v>
+        <v>0.00984236504882574</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
-        <v>0.00891877524554729</v>
+        <v>0.00982860382646322</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
-        <v>0.00891022197902203</v>
+        <v>0.0097877336665988</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
-        <v>0.00886997394263744</v>
+        <v>0.00966109614819288</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
-        <v>0.00864564348012209</v>
+        <v>0.00958144199103117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
-        <v>0.00863974168896675</v>
+        <v>0.00953363627195358</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
-        <v>0.00858806911855936</v>
+        <v>0.00935821700841188</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
-        <v>0.00845296960324049</v>
+        <v>0.00935688894242048</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>0.00834052916616201</v>
+        <v>0.00925192795693874</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
-        <v>0.00831841584295034</v>
+        <v>0.00922449771314859</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
-        <v>0.00814354699105024</v>
+        <v>0.00875533558428288</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
-        <v>0.0077401427552104</v>
+        <v>0.00861357618123293</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
-        <v>0.00772763136774302</v>
+        <v>0.00860029272735119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
-        <v>0.00758250197395682</v>
+        <v>0.00840233080089092</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
-        <v>0.00756472581997514</v>
+        <v>0.00819451920688152</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
-        <v>0.00739932339638472</v>
+        <v>0.00818947143852711</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
-        <v>0.00720988214015961</v>
+        <v>0.008126275613904</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1">
-        <v>0.00700691808015108</v>
+        <v>0.00811810698360205</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1">
-        <v>0.00695209112018347</v>
+        <v>0.008101936429739</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1">
-        <v>0.00681551638990641</v>
+        <v>0.00786702521145344</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1">
-        <v>0.00678463373333216</v>
+        <v>0.0078320475295186</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="1">
-        <v>0.00673148687928915</v>
+        <v>0.00773252313956618</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="1">
-        <v>0.0064858035184443</v>
+        <v>0.00690613966435194</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.00673954468220472</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0.00629761954769492</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2007,10 +1983,10 @@
         <v>72</v>
       </c>
       <c r="B68" s="1">
-        <v>0.00623473897576332</v>
+        <v>0.00646420288830996</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2018,10 +1994,10 @@
         <v>73</v>
       </c>
       <c r="B69" s="1">
-        <v>0.00602832809090614</v>
+        <v>0.00634976476430893</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2029,76 +2005,10 @@
         <v>74</v>
       </c>
       <c r="B70" s="1">
-        <v>0.00545119773596525</v>
+        <v>0.00546892732381821</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.00516659673303366</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0.00494661973789334</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.00464749801903963</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.00456809112802148</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0.00421354779973626</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0.00388149777427316</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
